--- a/biology/Médecine/CBFB/CBFB.xlsx
+++ b/biology/Médecine/CBFB/CBFB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CBFB désigne la protéine humaine Core-binding factor subunit beta qui est encodée par le gène CBFB[5] situé sur le chromosome 16 humain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CBFB désigne la protéine humaine Core-binding factor subunit beta qui est encodée par le gène CBFB situé sur le chromosome 16 humain.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Impact clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène CBFB est modifié par la translocation inv(16)(p13q22) qui est une altération du génome associée à la leucémie aiguë myéloïde 4 à éosinophiles (LAM4Eo). Lors de la translocation, le gène de fusion résultant est CBFB-MYH11 qui est transcrit en une protéine chimérique[6]. La présence de ce gène de fusion est indicatif de bon pronostic[7].
-Des mutations du gène CBFB sont également impliquées dans le cancer du sein[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène CBFB est modifié par la translocation inv(16)(p13q22) qui est une altération du génome associée à la leucémie aiguë myéloïde 4 à éosinophiles (LAM4Eo). Lors de la translocation, le gène de fusion résultant est CBFB-MYH11 qui est transcrit en une protéine chimérique. La présence de ce gène de fusion est indicatif de bon pronostic.
+Des mutations du gène CBFB sont également impliquées dans le cancer du sein.
 </t>
         </is>
       </c>
